--- a/diagram/szerep_funkcio.xlsx
+++ b/diagram/szerep_funkcio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Feri\egyetem\4.felev\adatb-alapu\konyvesbolt\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A0A4F0-455D-4AFD-9820-7BEDC65C11EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81119B1-394E-44E8-A2B0-742427319D4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2496749-DBEF-4F40-8F99-2203A9657445}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Szerep-funkció mátrix</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Profilmodósítás</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -150,6 +153,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB9010-59D1-417E-96C2-458D630C6272}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +486,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +511,11 @@
       <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -517,8 +530,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,8 +551,11 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,8 +576,11 @@
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -581,6 +601,9 @@
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
